--- a/public/assets/plantilla_alumnos.xlsx
+++ b/public/assets/plantilla_alumnos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fam. Pariona\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fam. Pariona\Documents\Programación\inst-teorodo\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F50456-3938-47D6-B3E4-DAFE308B7DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5140B91-20E5-4EC7-BC0E-0914452ACFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="2505" windowWidth="21600" windowHeight="12390" xr2:uid="{CB57F00D-3B84-4BCA-A087-3854393CA0B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB57F00D-3B84-4BCA-A087-3854393CA0B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Carrera</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>mil@gmail.com</t>
+  </si>
+  <si>
+    <t>09717576</t>
   </si>
 </sst>
 </file>
@@ -120,9 +123,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -457,7 +461,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,8 +511,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>29414859</v>
+      <c r="A3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
